--- a/public/bar.xlsx
+++ b/public/bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9C2CF-B1D7-C842-8602-89E0C6CDDC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA228A-6FE4-134D-9692-55D69C002C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="256">
   <si>
     <t>name_ru</t>
   </si>
@@ -806,6 +806,9 @@
   <si>
     <t>фрапучино</t>
   </si>
+  <si>
+    <t>frapuchino</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1296,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1306,7 +1309,7 @@
     <col min="12" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1344,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1361,18 +1364,18 @@
       <c r="G2" s="11"/>
       <c r="H2" s="6"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I6" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I7" si="0">LOWER($B2)</f>
         <v>espresso</v>
       </c>
       <c r="J2" s="13" t="str">
-        <f t="shared" ref="J2:J6" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J2:J7" si="1">LOWER($B2)&amp;"_"&amp;2</f>
         <v>espresso_2</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>americano_2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>cappuccino_2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>flat white_2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -1512,8 +1515,35 @@
       <c r="A7" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>frapuchino</v>
+      </c>
+      <c r="J7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>frapuchino_2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="D8" s="14"/>
@@ -5511,7 +5541,7 @@
     <col min="12" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -5546,7 +5576,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="15">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -5597,7 +5627,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="15">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
@@ -5648,7 +5678,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="15">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -5699,7 +5729,7 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="15">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -5750,7 +5780,7 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="15">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
@@ -5794,7 +5824,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="15">
       <c r="A7" s="7" t="s">
         <v>98</v>
       </c>
@@ -5838,7 +5868,7 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="15">
       <c r="A8" s="7" t="s">
         <v>102</v>
       </c>
@@ -63695,7 +63725,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -63730,7 +63760,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="15">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -63781,7 +63811,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="15">
       <c r="A3" s="5" t="s">
         <v>164</v>
       </c>
@@ -63825,7 +63855,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="15">
       <c r="A4" s="5" t="s">
         <v>167</v>
       </c>
@@ -63991,7 +64021,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -64026,7 +64056,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="15">
       <c r="A2" s="5" t="s">
         <v>185</v>
       </c>
@@ -64070,7 +64100,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="15">
       <c r="A3" s="5" t="s">
         <v>189</v>
       </c>
@@ -64114,7 +64144,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="15">
       <c r="A4" s="5" t="s">
         <v>192</v>
       </c>
@@ -64328,7 +64358,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -64377,7 +64407,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="15">
       <c r="A2" s="19" t="s">
         <v>213</v>
       </c>
@@ -64692,7 +64722,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="15">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -64727,7 +64757,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="15">
       <c r="A2" s="5" t="s">
         <v>244</v>
       </c>

--- a/public/bar.xlsx
+++ b/public/bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA228A-6FE4-134D-9692-55D69C002C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F2977-95CB-824A-B893-763554A7B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="254">
   <si>
     <t>name_ru</t>
   </si>
@@ -803,12 +803,6 @@
   <si>
     <t>ყავის შპრიცი</t>
   </si>
-  <si>
-    <t>фрапучино</t>
-  </si>
-  <si>
-    <t>frapuchino</t>
-  </si>
 </sst>
 </file>
 
@@ -1296,7 +1290,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1512,38 +1506,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>frapuchino</v>
-      </c>
-      <c r="J7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>frapuchino_2</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="D8" s="14"/>
